--- a/進捗/10月学習計画書-卢国良.xlsx
+++ b/進捗/10月学習計画書-卢国良.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tom/Documents/OneDrive/IT/node_js/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lurex\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B5FE87-F0DE-A84C-9F30-27814E04289A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715C19F5-9064-42A0-979B-389375B5DC86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{9C83AFA0-F4B7-744B-8790-6972D8931DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="学習計画書" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>10月学習計画書</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +259,10 @@
   </si>
   <si>
     <t>【尚硅谷】Bootstrap全套教程 理论+实战　11-17・練習</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卢国良</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,18 +751,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C78B51EF-28B7-2044-BA42-48873DCE2A6B}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21">
+    <row r="1" spans="1:8" ht="20.149999999999999">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -778,7 +774,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="21">
+    <row r="2" spans="1:8" ht="20.149999999999999">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -788,7 +784,9 @@
       <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="11"/>
+      <c r="H2" s="11" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
@@ -816,7 +814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1">
+    <row r="4" spans="1:8" ht="20.05" customHeight="1">
       <c r="A4" s="4">
         <v>44109</v>
       </c>
@@ -839,7 +837,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="21">
+    <row r="5" spans="1:8" ht="19.3">
       <c r="A5" s="4">
         <v>44110</v>
       </c>
@@ -862,7 +860,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
+    <row r="6" spans="1:8" ht="20.05" customHeight="1">
       <c r="A6" s="4">
         <v>44111</v>
       </c>
@@ -885,7 +883,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1">
+    <row r="7" spans="1:8" ht="20.05" customHeight="1">
       <c r="A7" s="4">
         <v>44112</v>
       </c>
@@ -908,7 +906,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1">
+    <row r="8" spans="1:8" ht="20.05" customHeight="1">
       <c r="A8" s="4">
         <v>44113</v>
       </c>
@@ -931,7 +929,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1">
+    <row r="9" spans="1:8" ht="20.05" customHeight="1">
       <c r="A9" s="9">
         <v>44114</v>
       </c>
@@ -946,7 +944,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1">
+    <row r="10" spans="1:8" ht="20.05" customHeight="1">
       <c r="A10" s="9">
         <v>44115</v>
       </c>
@@ -961,7 +959,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1">
+    <row r="11" spans="1:8" ht="20.05" customHeight="1">
       <c r="A11" s="4">
         <v>44116</v>
       </c>
@@ -984,7 +982,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1">
+    <row r="12" spans="1:8" ht="20.05" customHeight="1">
       <c r="A12" s="4">
         <v>44117</v>
       </c>
@@ -1007,7 +1005,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1">
+    <row r="13" spans="1:8" ht="20.05" customHeight="1">
       <c r="A13" s="4">
         <v>44118</v>
       </c>
@@ -1030,7 +1028,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1">
+    <row r="14" spans="1:8" ht="20.05" customHeight="1">
       <c r="A14" s="4">
         <v>44119</v>
       </c>
@@ -1053,7 +1051,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1">
+    <row r="15" spans="1:8" ht="20.05" customHeight="1">
       <c r="A15" s="4">
         <v>44120</v>
       </c>
@@ -1076,7 +1074,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1">
+    <row r="16" spans="1:8" ht="20.05" customHeight="1">
       <c r="A16" s="4">
         <v>44121</v>
       </c>
@@ -1091,7 +1089,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="20" customHeight="1">
+    <row r="17" spans="1:8" ht="20.05" customHeight="1">
       <c r="A17" s="4">
         <v>44122</v>
       </c>
@@ -1106,7 +1104,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1">
+    <row r="18" spans="1:8" ht="20.05" customHeight="1">
       <c r="A18" s="4">
         <v>44123</v>
       </c>
@@ -1129,7 +1127,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1">
+    <row r="19" spans="1:8" ht="20.05" customHeight="1">
       <c r="A19" s="4">
         <v>44124</v>
       </c>
@@ -1152,7 +1150,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20" customHeight="1">
+    <row r="20" spans="1:8" ht="20.05" customHeight="1">
       <c r="A20" s="4">
         <v>44125</v>
       </c>
@@ -1175,7 +1173,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20" customHeight="1">
+    <row r="21" spans="1:8" ht="20.05" customHeight="1">
       <c r="A21" s="4">
         <v>44126</v>
       </c>
@@ -1198,7 +1196,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="20" customHeight="1">
+    <row r="22" spans="1:8" ht="20.05" customHeight="1">
       <c r="A22" s="4">
         <v>44127</v>
       </c>
@@ -1221,7 +1219,7 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="20" customHeight="1">
+    <row r="23" spans="1:8" ht="20.05" customHeight="1">
       <c r="A23" s="4">
         <v>44128</v>
       </c>
@@ -1236,7 +1234,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="20" customHeight="1">
+    <row r="24" spans="1:8" ht="20.05" customHeight="1">
       <c r="A24" s="4">
         <v>44129</v>
       </c>
@@ -1251,7 +1249,7 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="20" customHeight="1">
+    <row r="25" spans="1:8" ht="20.05" customHeight="1">
       <c r="A25" s="4">
         <v>44130</v>
       </c>
@@ -1274,7 +1272,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1">
+    <row r="26" spans="1:8" ht="20.05" customHeight="1">
       <c r="A26" s="4">
         <v>44131</v>
       </c>
@@ -1297,7 +1295,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="20" customHeight="1">
+    <row r="27" spans="1:8" ht="20.05" customHeight="1">
       <c r="A27" s="4">
         <v>44132</v>
       </c>
@@ -1320,7 +1318,7 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="20" customHeight="1">
+    <row r="28" spans="1:8" ht="20.05" customHeight="1">
       <c r="A28" s="4">
         <v>44133</v>
       </c>
@@ -1343,7 +1341,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1">
+    <row r="29" spans="1:8" ht="20.05" customHeight="1">
       <c r="A29" s="4">
         <v>44134</v>
       </c>
@@ -1366,7 +1364,7 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1">
+    <row r="30" spans="1:8" ht="20.05" customHeight="1">
       <c r="A30" s="4">
         <v>44135</v>
       </c>
@@ -1403,7 +1401,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
